--- a/Data/EC/NIT-8300212601.xlsx
+++ b/Data/EC/NIT-8300212601.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82FCA41D-F62F-46BA-9732-E4FD5DD2B3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBCB104-4492-4BD4-AFE0-9E619C2EFFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A10526E1-14B3-43BF-ACBC-2820E5014321}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{84F7754F-295E-4E12-8309-74321CCAA129}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>JAVIER ACENDRA REDONDO</t>
   </si>
   <si>
+    <t>2304</t>
+  </si>
+  <si>
     <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -488,7 +488,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7183A641-01F7-2AB8-88B4-6B089DCC5C3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FB1146-D66A-FB7D-060F-6FD3A57B9966}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F75706-0004-45AF-B763-E93D6676FA31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A906184-DD57-40C3-9997-41A619CD635F}">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1017,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>41822</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1040,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="24">
-        <v>41822</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="24">
         <v>1300000</v>
